--- a/Config/U_UI配置.xlsx
+++ b/Config/U_UI配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>##</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>MainUIPanel</t>
+  </si>
+  <si>
+    <t>Demo.UI.MainUIPanel</t>
   </si>
   <si>
     <t>Base</t>
@@ -112,14 +115,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,48 +573,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,97 +627,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -729,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,7 +1079,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1195,24 +1191,24 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
